--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Affle India Ltd/Pruned_Excel/Final_Parameters/Affle India Ltd_Cleaned_Data.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Affle India Ltd/Pruned_Excel/Final_Parameters/Affle India Ltd_Cleaned_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="189">
   <si>
     <t>Balance Sheet of Affle India(in Rs. Cr.)</t>
   </si>
@@ -332,6 +332,9 @@
     <t>P/l before exceptional items &amp; tax</t>
   </si>
   <si>
+    <t>Exceptional items</t>
+  </si>
+  <si>
     <t>P/l before tax</t>
   </si>
   <si>
@@ -450,6 +453,9 @@
   </si>
   <si>
     <t>P/L Before Exceptional Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Exceptional Items</t>
   </si>
   <si>
     <t>P/L Before Tax</t>
@@ -2631,13 +2637,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -2698,19 +2704,22 @@
       <c r="T1" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
         <v>99</v>
@@ -2719,51 +2728,54 @@
         <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
         <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
         <v>102</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="N2" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="O2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>152</v>
+      </c>
+      <c r="U2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>34.74</v>
@@ -2795,23 +2807,20 @@
       <c r="K3">
         <v>8.800000000000001</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>8.800000000000001</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2.62</v>
-      </c>
-      <c r="N3">
-        <v>6.18</v>
       </c>
       <c r="O3">
         <v>6.18</v>
       </c>
       <c r="P3">
+        <v>6.18</v>
+      </c>
+      <c r="Q3">
         <v>24.29</v>
-      </c>
-      <c r="Q3">
-        <v>2.55</v>
       </c>
       <c r="R3">
         <v>2.55</v>
@@ -2822,10 +2831,13 @@
       <c r="T3">
         <v>2.55</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>27.53</v>
@@ -2857,23 +2869,20 @@
       <c r="K4">
         <v>5.31</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5.31</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.38</v>
-      </c>
-      <c r="N4">
-        <v>3.93</v>
       </c>
       <c r="O4">
         <v>3.93</v>
       </c>
       <c r="P4">
+        <v>3.93</v>
+      </c>
+      <c r="Q4">
         <v>24.29</v>
-      </c>
-      <c r="Q4">
-        <v>1.62</v>
       </c>
       <c r="R4">
         <v>1.62</v>
@@ -2884,10 +2893,13 @@
       <c r="T4">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>49.23</v>
@@ -2919,23 +2931,20 @@
       <c r="K5">
         <v>11.76</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>11.76</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2.95</v>
-      </c>
-      <c r="N5">
-        <v>8.81</v>
       </c>
       <c r="O5">
         <v>8.81</v>
       </c>
       <c r="P5">
+        <v>8.81</v>
+      </c>
+      <c r="Q5">
         <v>25.5</v>
-      </c>
-      <c r="Q5">
-        <v>3.57</v>
       </c>
       <c r="R5">
         <v>3.57</v>
@@ -2946,10 +2955,13 @@
       <c r="T5">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>30.41</v>
@@ -2981,34 +2993,34 @@
       <c r="K6">
         <v>8.27</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>8.27</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2.05</v>
-      </c>
-      <c r="N6">
-        <v>6.22</v>
       </c>
       <c r="O6">
         <v>6.22</v>
       </c>
       <c r="P6">
+        <v>6.22</v>
+      </c>
+      <c r="Q6">
         <v>24.29</v>
-      </c>
-      <c r="Q6">
-        <v>2.56</v>
       </c>
       <c r="R6">
         <v>2.56</v>
       </c>
-      <c r="T6">
+      <c r="S6">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>29.84</v>
@@ -3040,25 +3052,25 @@
       <c r="K7">
         <v>6.02</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6.02</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.78</v>
-      </c>
-      <c r="N7">
-        <v>4.25</v>
       </c>
       <c r="O7">
         <v>4.25</v>
       </c>
       <c r="P7">
+        <v>4.25</v>
+      </c>
+      <c r="Q7">
         <v>24.29</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>53.04</v>
@@ -3090,23 +3102,20 @@
       <c r="K8">
         <v>14.81</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>14.81</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>3.73</v>
-      </c>
-      <c r="N8">
-        <v>11.08</v>
       </c>
       <c r="O8">
         <v>11.08</v>
       </c>
       <c r="P8">
+        <v>11.08</v>
+      </c>
+      <c r="Q8">
         <v>25.5</v>
-      </c>
-      <c r="Q8">
-        <v>4.44</v>
       </c>
       <c r="R8">
         <v>4.44</v>
@@ -3117,10 +3126,13 @@
       <c r="T8">
         <v>4.44</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <v>78.31999999999999</v>
@@ -3152,23 +3164,20 @@
       <c r="K9">
         <v>9</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>9</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2.31</v>
-      </c>
-      <c r="N9">
-        <v>6.69</v>
       </c>
       <c r="O9">
         <v>6.69</v>
       </c>
       <c r="P9">
+        <v>6.69</v>
+      </c>
+      <c r="Q9">
         <v>25.5</v>
-      </c>
-      <c r="Q9">
-        <v>2.62</v>
       </c>
       <c r="R9">
         <v>2.62</v>
@@ -3179,10 +3188,13 @@
       <c r="T9">
         <v>2.62</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10">
         <v>72.65000000000001</v>
@@ -3214,23 +3226,20 @@
       <c r="K10">
         <v>9.779999999999999</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>9.779999999999999</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2.5</v>
-      </c>
-      <c r="N10">
-        <v>7.29</v>
       </c>
       <c r="O10">
         <v>7.29</v>
       </c>
       <c r="P10">
+        <v>7.29</v>
+      </c>
+      <c r="Q10">
         <v>25.5</v>
-      </c>
-      <c r="Q10">
-        <v>2.86</v>
       </c>
       <c r="R10">
         <v>2.86</v>
@@ -3241,10 +3250,13 @@
       <c r="T10">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11">
         <v>42.26</v>
@@ -3276,23 +3288,20 @@
       <c r="K11">
         <v>4.8</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4.8</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1.24</v>
-      </c>
-      <c r="N11">
-        <v>3.56</v>
       </c>
       <c r="O11">
         <v>3.56</v>
       </c>
       <c r="P11">
+        <v>3.56</v>
+      </c>
+      <c r="Q11">
         <v>25.5</v>
-      </c>
-      <c r="Q11">
-        <v>1.4</v>
       </c>
       <c r="R11">
         <v>1.4</v>
@@ -3303,10 +3312,13 @@
       <c r="T11">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12">
         <v>43.39</v>
@@ -3338,23 +3350,20 @@
       <c r="K12">
         <v>9.18</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>9.18</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2.4</v>
-      </c>
-      <c r="N12">
-        <v>6.78</v>
       </c>
       <c r="O12">
         <v>6.78</v>
       </c>
       <c r="P12">
+        <v>6.78</v>
+      </c>
+      <c r="Q12">
         <v>25.5</v>
-      </c>
-      <c r="Q12">
-        <v>2.7</v>
       </c>
       <c r="R12">
         <v>2.7</v>
@@ -3365,10 +3374,13 @@
       <c r="T12">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13">
         <v>111.27</v>
@@ -3400,23 +3412,20 @@
       <c r="K13">
         <v>17.4</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>17.4</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>4.93</v>
-      </c>
-      <c r="N13">
-        <v>12.47</v>
       </c>
       <c r="O13">
         <v>12.47</v>
       </c>
       <c r="P13">
+        <v>12.47</v>
+      </c>
+      <c r="Q13">
         <v>26.65</v>
-      </c>
-      <c r="Q13">
-        <v>0.9399999999999999</v>
       </c>
       <c r="R13">
         <v>0.9399999999999999</v>
@@ -3427,10 +3436,13 @@
       <c r="T13">
         <v>0.9399999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14">
         <v>95.97</v>
@@ -3462,23 +3474,20 @@
       <c r="K14">
         <v>20.93</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>20.93</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5.1</v>
-      </c>
-      <c r="N14">
-        <v>15.83</v>
       </c>
       <c r="O14">
         <v>15.83</v>
       </c>
       <c r="P14">
+        <v>15.83</v>
+      </c>
+      <c r="Q14">
         <v>26.65</v>
-      </c>
-      <c r="Q14">
-        <v>5.99</v>
       </c>
       <c r="R14">
         <v>5.99</v>
@@ -3489,10 +3498,13 @@
       <c r="T14">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15">
         <v>81.84999999999999</v>
@@ -3524,23 +3536,20 @@
       <c r="K15">
         <v>19.1</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>19.1</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>4.18</v>
-      </c>
-      <c r="N15">
-        <v>14.91</v>
       </c>
       <c r="O15">
         <v>14.91</v>
       </c>
       <c r="P15">
+        <v>14.91</v>
+      </c>
+      <c r="Q15">
         <v>26.65</v>
-      </c>
-      <c r="Q15">
-        <v>5.68</v>
       </c>
       <c r="R15">
         <v>5.68</v>
@@ -3551,10 +3560,13 @@
       <c r="T15">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16">
         <v>72.23</v>
@@ -3586,23 +3598,20 @@
       <c r="K16">
         <v>15.98</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>15.98</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>5.29</v>
-      </c>
-      <c r="N16">
-        <v>10.69</v>
       </c>
       <c r="O16">
         <v>10.69</v>
       </c>
       <c r="P16">
+        <v>10.69</v>
+      </c>
+      <c r="Q16">
         <v>25.5</v>
-      </c>
-      <c r="Q16">
-        <v>4.19</v>
       </c>
       <c r="R16">
         <v>4.19</v>
@@ -3613,10 +3622,13 @@
       <c r="T16">
         <v>4.19</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17">
         <v>108.44</v>
@@ -3648,23 +3660,20 @@
       <c r="K17">
         <v>18.4</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>18.4</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>5.06</v>
-      </c>
-      <c r="N17">
-        <v>13.34</v>
       </c>
       <c r="O17">
         <v>13.34</v>
       </c>
       <c r="P17">
+        <v>13.34</v>
+      </c>
+      <c r="Q17">
         <v>26.65</v>
-      </c>
-      <c r="Q17">
-        <v>1.01</v>
       </c>
       <c r="R17">
         <v>1.01</v>
@@ -3675,10 +3684,13 @@
       <c r="T17">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18">
         <v>137.27</v>
@@ -3710,23 +3722,20 @@
       <c r="K18">
         <v>28.73</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>28.73</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>7.25</v>
-      </c>
-      <c r="N18">
-        <v>21.48</v>
       </c>
       <c r="O18">
         <v>21.48</v>
       </c>
       <c r="P18">
+        <v>21.48</v>
+      </c>
+      <c r="Q18">
         <v>26.64</v>
-      </c>
-      <c r="Q18">
-        <v>1.61</v>
       </c>
       <c r="R18">
         <v>1.61</v>
@@ -3737,10 +3746,13 @@
       <c r="T18">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19">
         <v>115.86</v>
@@ -3772,23 +3784,20 @@
       <c r="K19">
         <v>19.99</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>19.99</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>5.18</v>
-      </c>
-      <c r="N19">
-        <v>14.81</v>
       </c>
       <c r="O19">
         <v>14.81</v>
       </c>
       <c r="P19">
+        <v>14.81</v>
+      </c>
+      <c r="Q19">
         <v>26.64</v>
-      </c>
-      <c r="Q19">
-        <v>1.11</v>
       </c>
       <c r="R19">
         <v>1.11</v>
@@ -3799,10 +3808,13 @@
       <c r="T19">
         <v>1.11</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20">
         <v>105.16</v>
@@ -3834,23 +3846,20 @@
       <c r="K20">
         <v>14.09</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>14.09</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>3.81</v>
-      </c>
-      <c r="N20">
-        <v>10.29</v>
       </c>
       <c r="O20">
         <v>10.29</v>
       </c>
       <c r="P20">
+        <v>10.29</v>
+      </c>
+      <c r="Q20">
         <v>26.64</v>
-      </c>
-      <c r="Q20">
-        <v>0.77</v>
       </c>
       <c r="R20">
         <v>0.77</v>
@@ -3861,10 +3870,13 @@
       <c r="T20">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21">
         <v>137.13</v>
@@ -3896,23 +3908,20 @@
       <c r="K21">
         <v>20.93</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>20.93</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>5.35</v>
-      </c>
-      <c r="N21">
-        <v>15.58</v>
       </c>
       <c r="O21">
         <v>15.58</v>
       </c>
       <c r="P21">
+        <v>15.58</v>
+      </c>
+      <c r="Q21">
         <v>26.64</v>
-      </c>
-      <c r="Q21">
-        <v>1.17</v>
       </c>
       <c r="R21">
         <v>1.17</v>
@@ -3923,10 +3932,13 @@
       <c r="T21">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B22">
         <v>136.5</v>
@@ -3958,23 +3970,20 @@
       <c r="K22">
         <v>27.23</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>27.23</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>6.92</v>
-      </c>
-      <c r="N22">
-        <v>20.31</v>
       </c>
       <c r="O22">
         <v>20.31</v>
       </c>
       <c r="P22">
+        <v>20.31</v>
+      </c>
+      <c r="Q22">
         <v>26.64</v>
-      </c>
-      <c r="Q22">
-        <v>1.52</v>
       </c>
       <c r="R22">
         <v>1.52</v>
@@ -3985,10 +3994,13 @@
       <c r="T22">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B23">
         <v>139.32</v>
@@ -4020,23 +4032,20 @@
       <c r="K23">
         <v>24.86</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>24.86</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>6.35</v>
-      </c>
-      <c r="N23">
-        <v>18.51</v>
       </c>
       <c r="O23">
         <v>18.51</v>
       </c>
       <c r="P23">
+        <v>18.51</v>
+      </c>
+      <c r="Q23">
         <v>28.02</v>
-      </c>
-      <c r="Q23">
-        <v>1.38</v>
       </c>
       <c r="R23">
         <v>1.38</v>
@@ -4047,10 +4056,13 @@
       <c r="T23">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24">
         <v>133.83</v>
@@ -4082,23 +4094,20 @@
       <c r="K24">
         <v>24.39</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>24.39</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>6.22</v>
-      </c>
-      <c r="N24">
-        <v>18.17</v>
       </c>
       <c r="O24">
         <v>18.17</v>
       </c>
       <c r="P24">
+        <v>18.17</v>
+      </c>
+      <c r="Q24">
         <v>26.64</v>
-      </c>
-      <c r="Q24">
-        <v>1.36</v>
       </c>
       <c r="R24">
         <v>1.36</v>
@@ -4109,10 +4118,13 @@
       <c r="T24">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25">
         <v>176.1</v>
@@ -4144,23 +4156,20 @@
       <c r="K25">
         <v>36.39</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>36.39</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>9.16</v>
-      </c>
-      <c r="N25">
-        <v>27.23</v>
       </c>
       <c r="O25">
         <v>27.23</v>
       </c>
       <c r="P25">
+        <v>27.23</v>
+      </c>
+      <c r="Q25">
         <v>28.04</v>
-      </c>
-      <c r="Q25">
-        <v>1.94</v>
       </c>
       <c r="R25">
         <v>1.94</v>
@@ -4171,10 +4180,13 @@
       <c r="T25">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26">
         <v>163.15</v>
@@ -4206,23 +4218,20 @@
       <c r="K26">
         <v>37.95</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>37.95</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>9.779999999999999</v>
-      </c>
-      <c r="N26">
-        <v>28.17</v>
       </c>
       <c r="O26">
         <v>28.17</v>
       </c>
       <c r="P26">
+        <v>28.17</v>
+      </c>
+      <c r="Q26">
         <v>28.03</v>
-      </c>
-      <c r="Q26">
-        <v>2.01</v>
       </c>
       <c r="R26">
         <v>2.01</v>
@@ -4233,10 +4242,13 @@
       <c r="T26">
         <v>2.01</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B27">
         <v>155.72</v>
@@ -4268,23 +4280,20 @@
       <c r="K27">
         <v>31.48</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>31.48</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>7.78</v>
-      </c>
-      <c r="N27">
-        <v>23.69</v>
       </c>
       <c r="O27">
         <v>23.69</v>
       </c>
       <c r="P27">
+        <v>23.69</v>
+      </c>
+      <c r="Q27">
         <v>28.02</v>
-      </c>
-      <c r="Q27">
-        <v>1.75</v>
       </c>
       <c r="R27">
         <v>1.75</v>
@@ -4293,6 +4302,9 @@
         <v>1.75</v>
       </c>
       <c r="T27">
+        <v>1.75</v>
+      </c>
+      <c r="U27">
         <v>1.75</v>
       </c>
     </row>
@@ -4311,114 +4323,114 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="R2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:18">
